--- a/data/light-reading-cloud/reading-cloud-book_structure.xlsx
+++ b/data/light-reading-cloud/reading-cloud-book_structure.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2940" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2958" uniqueCount="259">
   <si>
     <t>Class Name</t>
   </si>
@@ -561,94 +561,94 @@
     <t>Field Type</t>
   </si>
   <si>
+    <t>authorName</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>dicSerialStatus</t>
+  </si>
+  <si>
+    <t>bookName</t>
+  </si>
+  <si>
+    <t>bookScore</t>
+  </si>
+  <si>
+    <t>keyWord</t>
+  </si>
+  <si>
     <t>dicChannel</t>
   </si>
   <si>
-    <t>dicSerialStatus</t>
-  </si>
-  <si>
     <t>wordCount</t>
   </si>
   <si>
+    <t>dicCategory</t>
+  </si>
+  <si>
+    <t>imgUrl</t>
+  </si>
+  <si>
     <t>introduction</t>
   </si>
   <si>
-    <t>keyWord</t>
-  </si>
-  <si>
-    <t>dicCategory</t>
+    <t>serialStatusName</t>
+  </si>
+  <si>
+    <t>authorId</t>
+  </si>
+  <si>
+    <t>bookId</t>
   </si>
   <si>
     <t>categoryName</t>
   </si>
   <si>
-    <t>bookName</t>
-  </si>
-  <si>
-    <t>serialStatusName</t>
-  </si>
-  <si>
-    <t>bookScore</t>
-  </si>
-  <si>
-    <t>bookId</t>
-  </si>
-  <si>
-    <t>imgUrl</t>
-  </si>
-  <si>
-    <t>authorName</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>authorId</t>
+    <t>LOGGER</t>
+  </si>
+  <si>
+    <t>org.slf4j.Logger</t>
   </si>
   <si>
     <t>bookService</t>
   </si>
   <si>
+    <t>redisService</t>
+  </si>
+  <si>
+    <t>cn.zealon.readingcloud.common.cache.RedisService</t>
+  </si>
+  <si>
     <t>bookChapterMapper</t>
   </si>
   <si>
-    <t>LOGGER</t>
-  </si>
-  <si>
-    <t>org.slf4j.Logger</t>
-  </si>
-  <si>
-    <t>redisService</t>
-  </si>
-  <si>
-    <t>cn.zealon.readingcloud.common.cache.RedisService</t>
-  </si>
-  <si>
     <t>this$0</t>
   </si>
   <si>
     <t>lockStatus</t>
   </si>
   <si>
+    <t>sortNumber</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
     <t>serialVersionUID</t>
   </si>
   <si>
     <t>java.lang.Long</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>sortNumber</t>
-  </si>
-  <si>
     <t>pre</t>
   </si>
   <si>
+    <t>next</t>
+  </si>
+  <si>
     <t>current</t>
-  </si>
-  <si>
-    <t>next</t>
   </si>
   <si>
     <t>content</t>
@@ -6243,7 +6243,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C141"/>
+  <dimension ref="A1:C147"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6287,10 +6287,10 @@
         <v>27</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>222</v>
+        <v>232</v>
       </c>
     </row>
     <row r="5">
@@ -6298,7 +6298,7 @@
         <v>27</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C5" t="s" s="0">
         <v>222</v>
@@ -6309,7 +6309,7 @@
         <v>27</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="C6" t="s" s="0">
         <v>222</v>
@@ -6320,7 +6320,7 @@
         <v>27</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C7" t="s" s="0">
         <v>222</v>
@@ -6331,7 +6331,7 @@
         <v>27</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C8" t="s" s="0">
         <v>222</v>
@@ -6342,7 +6342,7 @@
         <v>27</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C9" t="s" s="0">
         <v>222</v>
@@ -6353,7 +6353,7 @@
         <v>27</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="C10" t="s" s="0">
         <v>222</v>
@@ -6364,7 +6364,7 @@
         <v>27</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="C11" t="s" s="0">
         <v>222</v>
@@ -6375,7 +6375,7 @@
         <v>27</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="C12" t="s" s="0">
         <v>222</v>
@@ -6386,7 +6386,7 @@
         <v>27</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="C13" t="s" s="0">
         <v>222</v>
@@ -6397,7 +6397,7 @@
         <v>27</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C14" t="s" s="0">
         <v>222</v>
@@ -6408,7 +6408,7 @@
         <v>27</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="C15" t="s" s="0">
         <v>222</v>
@@ -6419,7 +6419,7 @@
         <v>27</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C16" t="s" s="0">
         <v>222</v>
@@ -6430,7 +6430,7 @@
         <v>27</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="C17" t="s" s="0">
         <v>222</v>
@@ -6441,7 +6441,7 @@
         <v>27</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="C18" t="s" s="0">
         <v>222</v>
@@ -6452,7 +6452,7 @@
         <v>27</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C19" t="s" s="0">
         <v>222</v>
@@ -6463,7 +6463,7 @@
         <v>27</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="C20" t="s" s="0">
         <v>222</v>
@@ -6474,7 +6474,7 @@
         <v>27</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C21" t="s" s="0">
         <v>222</v>
@@ -6485,7 +6485,7 @@
         <v>27</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="C22" t="s" s="0">
         <v>222</v>
@@ -6496,7 +6496,7 @@
         <v>27</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C23" t="s" s="0">
         <v>222</v>
@@ -6507,7 +6507,7 @@
         <v>27</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="C24" t="s" s="0">
         <v>222</v>
@@ -6518,7 +6518,7 @@
         <v>27</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C25" t="s" s="0">
         <v>222</v>
@@ -6529,7 +6529,7 @@
         <v>27</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="C26" t="s" s="0">
         <v>222</v>
@@ -6540,7 +6540,7 @@
         <v>27</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C27" t="s" s="0">
         <v>222</v>
@@ -6551,7 +6551,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="C28" t="s" s="0">
         <v>222</v>
@@ -6562,7 +6562,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="C29" t="s" s="0">
         <v>222</v>
@@ -6573,7 +6573,7 @@
         <v>27</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C30" t="s" s="0">
         <v>222</v>
@@ -6584,7 +6584,7 @@
         <v>27</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C31" t="s" s="0">
         <v>222</v>
@@ -6595,7 +6595,7 @@
         <v>27</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="C32" t="s" s="0">
         <v>222</v>
@@ -6606,7 +6606,7 @@
         <v>27</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="C33" t="s" s="0">
         <v>222</v>
@@ -6617,10 +6617,10 @@
         <v>27</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="C34" t="s" s="0">
-        <v>245</v>
+        <v>222</v>
       </c>
     </row>
     <row r="35">
@@ -6628,10 +6628,10 @@
         <v>27</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>48</v>
+        <v>5</v>
       </c>
       <c r="C35" t="s" s="0">
-        <v>222</v>
+        <v>245</v>
       </c>
     </row>
     <row r="36">
@@ -6639,10 +6639,10 @@
         <v>27</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="C36" t="s" s="0">
-        <v>246</v>
+        <v>222</v>
       </c>
     </row>
     <row r="37">
@@ -6650,21 +6650,21 @@
         <v>27</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C37" t="s" s="0">
-        <v>222</v>
+        <v>246</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="C38" t="s" s="0">
-        <v>232</v>
+        <v>222</v>
       </c>
     </row>
     <row r="39">
@@ -6672,10 +6672,10 @@
         <v>61</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C39" t="s" s="0">
-        <v>221</v>
+        <v>232</v>
       </c>
     </row>
     <row r="40">
@@ -6683,21 +6683,21 @@
         <v>61</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C40" t="s" s="0">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="C41" t="s" s="0">
-        <v>219</v>
+        <v>222</v>
       </c>
     </row>
     <row r="42">
@@ -6705,7 +6705,7 @@
         <v>68</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C42" t="s" s="0">
         <v>219</v>
@@ -6716,7 +6716,7 @@
         <v>68</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C43" t="s" s="0">
         <v>219</v>
@@ -6727,7 +6727,7 @@
         <v>68</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C44" t="s" s="0">
         <v>219</v>
@@ -6735,10 +6735,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C45" t="s" s="0">
         <v>219</v>
@@ -6746,10 +6746,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C46" t="s" s="0">
         <v>219</v>
@@ -6760,7 +6760,7 @@
         <v>78</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C47" t="s" s="0">
         <v>219</v>
@@ -6771,7 +6771,7 @@
         <v>78</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C48" t="s" s="0">
         <v>219</v>
@@ -6779,13 +6779,13 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C49" t="s" s="0">
-        <v>232</v>
+        <v>219</v>
       </c>
     </row>
     <row r="50">
@@ -6793,10 +6793,10 @@
         <v>82</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C50" t="s" s="0">
-        <v>247</v>
+        <v>232</v>
       </c>
     </row>
     <row r="51">
@@ -6804,10 +6804,10 @@
         <v>82</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C51" t="s" s="0">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="52">
@@ -6815,10 +6815,10 @@
         <v>82</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C52" t="s" s="0">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="53">
@@ -6826,10 +6826,10 @@
         <v>82</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C53" t="s" s="0">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="54">
@@ -6837,21 +6837,21 @@
         <v>82</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C54" t="s" s="0">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="C55" t="s" s="0">
-        <v>219</v>
+        <v>251</v>
       </c>
     </row>
     <row r="56">
@@ -6859,7 +6859,7 @@
         <v>87</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="C56" t="s" s="0">
         <v>219</v>
@@ -6870,7 +6870,7 @@
         <v>87</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C57" t="s" s="0">
         <v>219</v>
@@ -6881,7 +6881,7 @@
         <v>87</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C58" t="s" s="0">
         <v>219</v>
@@ -6889,24 +6889,24 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C59" t="s" s="0">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C60" t="s" s="0">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="61">
@@ -6914,7 +6914,7 @@
         <v>95</v>
       </c>
       <c r="B61" t="s" s="0">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C61" t="s" s="0">
         <v>222</v>
@@ -6922,68 +6922,68 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="B62" t="s" s="0">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C62" t="s" s="0">
-        <v>251</v>
+        <v>222</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
-        <v>170</v>
+        <v>101</v>
       </c>
       <c r="B63" t="s" s="0">
-        <v>26</v>
+        <v>103</v>
       </c>
       <c r="C63" t="s" s="0">
-        <v>222</v>
+        <v>232</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="0">
-        <v>170</v>
+        <v>101</v>
       </c>
       <c r="B64" t="s" s="0">
-        <v>19</v>
+        <v>102</v>
       </c>
       <c r="C64" t="s" s="0">
-        <v>222</v>
+        <v>251</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="0">
-        <v>105</v>
+        <v>170</v>
       </c>
       <c r="B65" t="s" s="0">
-        <v>73</v>
+        <v>171</v>
       </c>
       <c r="C65" t="s" s="0">
-        <v>219</v>
+        <v>232</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="0">
-        <v>105</v>
+        <v>170</v>
       </c>
       <c r="B66" t="s" s="0">
-        <v>109</v>
+        <v>26</v>
       </c>
       <c r="C66" t="s" s="0">
-        <v>219</v>
+        <v>222</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="0">
-        <v>105</v>
+        <v>170</v>
       </c>
       <c r="B67" t="s" s="0">
-        <v>107</v>
+        <v>19</v>
       </c>
       <c r="C67" t="s" s="0">
-        <v>219</v>
+        <v>222</v>
       </c>
     </row>
     <row r="68">
@@ -6991,7 +6991,7 @@
         <v>105</v>
       </c>
       <c r="B68" t="s" s="0">
-        <v>108</v>
+        <v>73</v>
       </c>
       <c r="C68" t="s" s="0">
         <v>219</v>
@@ -7002,7 +7002,7 @@
         <v>105</v>
       </c>
       <c r="B69" t="s" s="0">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C69" t="s" s="0">
         <v>219</v>
@@ -7010,35 +7010,35 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="0">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="B70" t="s" s="0">
-        <v>42</v>
+        <v>107</v>
       </c>
       <c r="C70" t="s" s="0">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="0">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="B71" t="s" s="0">
-        <v>36</v>
+        <v>108</v>
       </c>
       <c r="C71" t="s" s="0">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="0">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="B72" t="s" s="0">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="C72" t="s" s="0">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="73">
@@ -7046,10 +7046,10 @@
         <v>111</v>
       </c>
       <c r="B73" t="s" s="0">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C73" t="s" s="0">
-        <v>222</v>
+        <v>232</v>
       </c>
     </row>
     <row r="74">
@@ -7057,7 +7057,7 @@
         <v>111</v>
       </c>
       <c r="B74" t="s" s="0">
-        <v>120</v>
+        <v>42</v>
       </c>
       <c r="C74" t="s" s="0">
         <v>222</v>
@@ -7068,7 +7068,7 @@
         <v>111</v>
       </c>
       <c r="B75" t="s" s="0">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C75" t="s" s="0">
         <v>222</v>
@@ -7079,7 +7079,7 @@
         <v>111</v>
       </c>
       <c r="B76" t="s" s="0">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C76" t="s" s="0">
         <v>222</v>
@@ -7090,7 +7090,7 @@
         <v>111</v>
       </c>
       <c r="B77" t="s" s="0">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="C77" t="s" s="0">
         <v>222</v>
@@ -7101,7 +7101,7 @@
         <v>111</v>
       </c>
       <c r="B78" t="s" s="0">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C78" t="s" s="0">
         <v>222</v>
@@ -7112,7 +7112,7 @@
         <v>111</v>
       </c>
       <c r="B79" t="s" s="0">
-        <v>114</v>
+        <v>39</v>
       </c>
       <c r="C79" t="s" s="0">
         <v>222</v>
@@ -7123,10 +7123,10 @@
         <v>111</v>
       </c>
       <c r="B80" t="s" s="0">
-        <v>5</v>
+        <v>115</v>
       </c>
       <c r="C80" t="s" s="0">
-        <v>252</v>
+        <v>222</v>
       </c>
     </row>
     <row r="81">
@@ -7134,7 +7134,7 @@
         <v>111</v>
       </c>
       <c r="B81" t="s" s="0">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="C81" t="s" s="0">
         <v>222</v>
@@ -7145,10 +7145,10 @@
         <v>111</v>
       </c>
       <c r="B82" t="s" s="0">
-        <v>16</v>
+        <v>117</v>
       </c>
       <c r="C82" t="s" s="0">
-        <v>253</v>
+        <v>222</v>
       </c>
     </row>
     <row r="83">
@@ -7156,7 +7156,7 @@
         <v>111</v>
       </c>
       <c r="B83" t="s" s="0">
-        <v>11</v>
+        <v>114</v>
       </c>
       <c r="C83" t="s" s="0">
         <v>222</v>
@@ -7164,21 +7164,21 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="0">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="B84" t="s" s="0">
-        <v>128</v>
+        <v>5</v>
       </c>
       <c r="C84" t="s" s="0">
-        <v>222</v>
+        <v>252</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="0">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="B85" t="s" s="0">
-        <v>123</v>
+        <v>48</v>
       </c>
       <c r="C85" t="s" s="0">
         <v>222</v>
@@ -7186,21 +7186,21 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="0">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="B86" t="s" s="0">
-        <v>126</v>
+        <v>16</v>
       </c>
       <c r="C86" t="s" s="0">
-        <v>222</v>
+        <v>253</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="0">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="B87" t="s" s="0">
-        <v>125</v>
+        <v>11</v>
       </c>
       <c r="C87" t="s" s="0">
         <v>222</v>
@@ -7211,10 +7211,10 @@
         <v>121</v>
       </c>
       <c r="B88" t="s" s="0">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C88" t="s" s="0">
-        <v>222</v>
+        <v>232</v>
       </c>
     </row>
     <row r="89">
@@ -7222,7 +7222,7 @@
         <v>121</v>
       </c>
       <c r="B89" t="s" s="0">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="C89" t="s" s="0">
         <v>222</v>
@@ -7233,10 +7233,10 @@
         <v>121</v>
       </c>
       <c r="B90" t="s" s="0">
-        <v>5</v>
+        <v>123</v>
       </c>
       <c r="C90" t="s" s="0">
-        <v>254</v>
+        <v>222</v>
       </c>
     </row>
     <row r="91">
@@ -7244,7 +7244,7 @@
         <v>121</v>
       </c>
       <c r="B91" t="s" s="0">
-        <v>48</v>
+        <v>126</v>
       </c>
       <c r="C91" t="s" s="0">
         <v>222</v>
@@ -7255,10 +7255,10 @@
         <v>121</v>
       </c>
       <c r="B92" t="s" s="0">
-        <v>16</v>
+        <v>125</v>
       </c>
       <c r="C92" t="s" s="0">
-        <v>255</v>
+        <v>222</v>
       </c>
     </row>
     <row r="93">
@@ -7266,7 +7266,7 @@
         <v>121</v>
       </c>
       <c r="B93" t="s" s="0">
-        <v>11</v>
+        <v>127</v>
       </c>
       <c r="C93" t="s" s="0">
         <v>222</v>
@@ -7274,10 +7274,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="0">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B94" t="s" s="0">
-        <v>42</v>
+        <v>122</v>
       </c>
       <c r="C94" t="s" s="0">
         <v>222</v>
@@ -7285,21 +7285,21 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="0">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B95" t="s" s="0">
-        <v>116</v>
+        <v>5</v>
       </c>
       <c r="C95" t="s" s="0">
-        <v>222</v>
+        <v>254</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s" s="0">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B96" t="s" s="0">
-        <v>131</v>
+        <v>48</v>
       </c>
       <c r="C96" t="s" s="0">
         <v>222</v>
@@ -7307,21 +7307,21 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="0">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B97" t="s" s="0">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="C97" t="s" s="0">
-        <v>222</v>
+        <v>255</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s" s="0">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B98" t="s" s="0">
-        <v>112</v>
+        <v>11</v>
       </c>
       <c r="C98" t="s" s="0">
         <v>222</v>
@@ -7332,10 +7332,10 @@
         <v>124</v>
       </c>
       <c r="B99" t="s" s="0">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C99" t="s" s="0">
-        <v>222</v>
+        <v>236</v>
       </c>
     </row>
     <row r="100">
@@ -7343,10 +7343,10 @@
         <v>124</v>
       </c>
       <c r="B100" t="s" s="0">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="C100" t="s" s="0">
-        <v>254</v>
+        <v>222</v>
       </c>
     </row>
     <row r="101">
@@ -7354,7 +7354,7 @@
         <v>124</v>
       </c>
       <c r="B101" t="s" s="0">
-        <v>48</v>
+        <v>116</v>
       </c>
       <c r="C101" t="s" s="0">
         <v>222</v>
@@ -7365,10 +7365,10 @@
         <v>124</v>
       </c>
       <c r="B102" t="s" s="0">
-        <v>16</v>
+        <v>131</v>
       </c>
       <c r="C102" t="s" s="0">
-        <v>255</v>
+        <v>222</v>
       </c>
     </row>
     <row r="103">
@@ -7376,7 +7376,7 @@
         <v>124</v>
       </c>
       <c r="B103" t="s" s="0">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="C103" t="s" s="0">
         <v>222</v>
@@ -7384,21 +7384,21 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="0">
-        <v>172</v>
+        <v>124</v>
       </c>
       <c r="B104" t="s" s="0">
-        <v>174</v>
+        <v>112</v>
       </c>
       <c r="C104" t="s" s="0">
-        <v>232</v>
+        <v>222</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s" s="0">
-        <v>172</v>
+        <v>124</v>
       </c>
       <c r="B105" t="s" s="0">
-        <v>173</v>
+        <v>132</v>
       </c>
       <c r="C105" t="s" s="0">
         <v>222</v>
@@ -7406,21 +7406,21 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="0">
-        <v>172</v>
+        <v>124</v>
       </c>
       <c r="B106" t="s" s="0">
-        <v>175</v>
+        <v>5</v>
       </c>
       <c r="C106" t="s" s="0">
-        <v>222</v>
+        <v>254</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s" s="0">
-        <v>172</v>
+        <v>124</v>
       </c>
       <c r="B107" t="s" s="0">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="C107" t="s" s="0">
         <v>222</v>
@@ -7428,32 +7428,32 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="0">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="B108" t="s" s="0">
-        <v>69</v>
+        <v>16</v>
       </c>
       <c r="C108" t="s" s="0">
-        <v>219</v>
+        <v>255</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s" s="0">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="B109" t="s" s="0">
-        <v>74</v>
+        <v>11</v>
       </c>
       <c r="C109" t="s" s="0">
-        <v>219</v>
+        <v>222</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s" s="0">
-        <v>134</v>
+        <v>172</v>
       </c>
       <c r="B110" t="s" s="0">
-        <v>139</v>
+        <v>174</v>
       </c>
       <c r="C110" t="s" s="0">
         <v>232</v>
@@ -7461,21 +7461,21 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="0">
-        <v>134</v>
+        <v>172</v>
       </c>
       <c r="B111" t="s" s="0">
-        <v>137</v>
+        <v>173</v>
       </c>
       <c r="C111" t="s" s="0">
-        <v>251</v>
+        <v>222</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s" s="0">
-        <v>134</v>
+        <v>172</v>
       </c>
       <c r="B112" t="s" s="0">
-        <v>135</v>
+        <v>175</v>
       </c>
       <c r="C112" t="s" s="0">
         <v>222</v>
@@ -7483,112 +7483,112 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="0">
-        <v>134</v>
+        <v>172</v>
       </c>
       <c r="B113" t="s" s="0">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="C113" t="s" s="0">
-        <v>255</v>
+        <v>222</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s" s="0">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="B114" t="s" s="0">
-        <v>143</v>
+        <v>69</v>
       </c>
       <c r="C114" t="s" s="0">
-        <v>232</v>
+        <v>219</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s" s="0">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="B115" t="s" s="0">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C115" t="s" s="0">
-        <v>256</v>
+        <v>219</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s" s="0">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="B116" t="s" s="0">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C116" t="s" s="0">
-        <v>251</v>
+        <v>232</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s" s="0">
-        <v>84</v>
+        <v>134</v>
       </c>
       <c r="B117" t="s" s="0">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="C117" t="s" s="0">
-        <v>220</v>
+        <v>251</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s" s="0">
-        <v>84</v>
+        <v>134</v>
       </c>
       <c r="B118" t="s" s="0">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="C118" t="s" s="0">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s" s="0">
-        <v>84</v>
+        <v>134</v>
       </c>
       <c r="B119" t="s" s="0">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="C119" t="s" s="0">
-        <v>221</v>
+        <v>255</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s" s="0">
-        <v>84</v>
+        <v>142</v>
       </c>
       <c r="B120" t="s" s="0">
-        <v>42</v>
+        <v>143</v>
       </c>
       <c r="C120" t="s" s="0">
-        <v>222</v>
+        <v>232</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s" s="0">
-        <v>84</v>
+        <v>142</v>
       </c>
       <c r="B121" t="s" s="0">
-        <v>116</v>
+        <v>76</v>
       </c>
       <c r="C121" t="s" s="0">
-        <v>222</v>
+        <v>256</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s" s="0">
-        <v>84</v>
+        <v>142</v>
       </c>
       <c r="B122" t="s" s="0">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="C122" t="s" s="0">
-        <v>222</v>
+        <v>251</v>
       </c>
     </row>
     <row r="123">
@@ -7596,10 +7596,10 @@
         <v>84</v>
       </c>
       <c r="B123" t="s" s="0">
-        <v>126</v>
+        <v>150</v>
       </c>
       <c r="C123" t="s" s="0">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="124">
@@ -7607,10 +7607,10 @@
         <v>84</v>
       </c>
       <c r="B124" t="s" s="0">
-        <v>39</v>
+        <v>147</v>
       </c>
       <c r="C124" t="s" s="0">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="125">
@@ -7618,10 +7618,10 @@
         <v>84</v>
       </c>
       <c r="B125" t="s" s="0">
-        <v>112</v>
+        <v>148</v>
       </c>
       <c r="C125" t="s" s="0">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="126">
@@ -7629,7 +7629,7 @@
         <v>84</v>
       </c>
       <c r="B126" t="s" s="0">
-        <v>146</v>
+        <v>42</v>
       </c>
       <c r="C126" t="s" s="0">
         <v>222</v>
@@ -7640,7 +7640,7 @@
         <v>84</v>
       </c>
       <c r="B127" t="s" s="0">
-        <v>149</v>
+        <v>116</v>
       </c>
       <c r="C127" t="s" s="0">
         <v>222</v>
@@ -7651,10 +7651,10 @@
         <v>84</v>
       </c>
       <c r="B128" t="s" s="0">
-        <v>5</v>
+        <v>123</v>
       </c>
       <c r="C128" t="s" s="0">
-        <v>257</v>
+        <v>222</v>
       </c>
     </row>
     <row r="129">
@@ -7662,7 +7662,7 @@
         <v>84</v>
       </c>
       <c r="B129" t="s" s="0">
-        <v>48</v>
+        <v>126</v>
       </c>
       <c r="C129" t="s" s="0">
         <v>222</v>
@@ -7673,10 +7673,10 @@
         <v>84</v>
       </c>
       <c r="B130" t="s" s="0">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="C130" t="s" s="0">
-        <v>258</v>
+        <v>222</v>
       </c>
     </row>
     <row r="131">
@@ -7684,7 +7684,7 @@
         <v>84</v>
       </c>
       <c r="B131" t="s" s="0">
-        <v>11</v>
+        <v>112</v>
       </c>
       <c r="C131" t="s" s="0">
         <v>222</v>
@@ -7692,21 +7692,21 @@
     </row>
     <row r="132">
       <c r="A132" t="s" s="0">
-        <v>151</v>
+        <v>84</v>
       </c>
       <c r="B132" t="s" s="0">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="C132" t="s" s="0">
-        <v>232</v>
+        <v>222</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s" s="0">
-        <v>151</v>
+        <v>84</v>
       </c>
       <c r="B133" t="s" s="0">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C133" t="s" s="0">
         <v>222</v>
@@ -7714,32 +7714,32 @@
     </row>
     <row r="134">
       <c r="A134" t="s" s="0">
-        <v>154</v>
+        <v>84</v>
       </c>
       <c r="B134" t="s" s="0">
-        <v>155</v>
+        <v>5</v>
       </c>
       <c r="C134" t="s" s="0">
-        <v>232</v>
+        <v>257</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s" s="0">
-        <v>154</v>
+        <v>84</v>
       </c>
       <c r="B135" t="s" s="0">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="C135" t="s" s="0">
-        <v>255</v>
+        <v>222</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s" s="0">
-        <v>154</v>
+        <v>84</v>
       </c>
       <c r="B136" t="s" s="0">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C136" t="s" s="0">
         <v>258</v>
@@ -7747,56 +7747,122 @@
     </row>
     <row r="137">
       <c r="A137" t="s" s="0">
-        <v>156</v>
+        <v>84</v>
       </c>
       <c r="B137" t="s" s="0">
-        <v>159</v>
+        <v>11</v>
       </c>
       <c r="C137" t="s" s="0">
-        <v>232</v>
+        <v>222</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s" s="0">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="B138" t="s" s="0">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="C138" t="s" s="0">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s" s="0">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="B139" t="s" s="0">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C139" t="s" s="0">
-        <v>248</v>
+        <v>222</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s" s="0">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B140" t="s" s="0">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="C140" t="s" s="0">
-        <v>251</v>
+        <v>232</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s" s="0">
+        <v>154</v>
+      </c>
+      <c r="B141" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="C141" t="s" s="0">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="s" s="0">
+        <v>154</v>
+      </c>
+      <c r="B142" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="C142" t="s" s="0">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="s" s="0">
         <v>156</v>
       </c>
-      <c r="B141" t="s" s="0">
+      <c r="B143" t="s" s="0">
+        <v>159</v>
+      </c>
+      <c r="C143" t="s" s="0">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="s" s="0">
+        <v>156</v>
+      </c>
+      <c r="B144" t="s" s="0">
+        <v>160</v>
+      </c>
+      <c r="C144" t="s" s="0">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="s" s="0">
+        <v>156</v>
+      </c>
+      <c r="B145" t="s" s="0">
+        <v>157</v>
+      </c>
+      <c r="C145" t="s" s="0">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="s" s="0">
+        <v>156</v>
+      </c>
+      <c r="B146" t="s" s="0">
+        <v>163</v>
+      </c>
+      <c r="C146" t="s" s="0">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="s" s="0">
+        <v>156</v>
+      </c>
+      <c r="B147" t="s" s="0">
         <v>162</v>
       </c>
-      <c r="C141" t="s" s="0">
+      <c r="C147" t="s" s="0">
         <v>248</v>
       </c>
     </row>
@@ -8355,7 +8421,7 @@
         <v>64</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3">
@@ -8411,7 +8477,7 @@
         <v>64</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7">
@@ -8425,7 +8491,7 @@
         <v>64</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8">
@@ -8439,7 +8505,7 @@
         <v>64</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9">
@@ -8453,7 +8519,7 @@
         <v>64</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10">
@@ -8467,7 +8533,7 @@
         <v>64</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11">
@@ -8481,7 +8547,7 @@
         <v>64</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12">
@@ -8523,7 +8589,7 @@
         <v>64</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15">
@@ -8537,7 +8603,7 @@
         <v>64</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16">
@@ -8551,7 +8617,7 @@
         <v>64</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17">
@@ -8565,7 +8631,7 @@
         <v>64</v>
       </c>
       <c r="D17" t="s" s="0">
-        <v>4</v>
+        <v>195</v>
       </c>
     </row>
     <row r="18">
@@ -8573,13 +8639,13 @@
         <v>82</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C18" t="s" s="0">
         <v>64</v>
       </c>
       <c r="D18" t="s" s="0">
-        <v>105</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19">
@@ -8587,13 +8653,13 @@
         <v>82</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C19" t="s" s="0">
         <v>64</v>
       </c>
       <c r="D19" t="s" s="0">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="20">
@@ -8601,13 +8667,13 @@
         <v>82</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C20" t="s" s="0">
         <v>64</v>
       </c>
       <c r="D20" t="s" s="0">
-        <v>199</v>
+        <v>105</v>
       </c>
     </row>
     <row r="21">
@@ -8629,7 +8695,7 @@
         <v>170</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C22" t="s" s="0">
         <v>64</v>
@@ -8643,13 +8709,13 @@
         <v>111</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="C23" t="s" s="0">
-        <v>9</v>
+        <v>64</v>
       </c>
       <c r="D23" t="s" s="0">
-        <v>31</v>
+        <v>119</v>
       </c>
     </row>
     <row r="24">
@@ -8657,13 +8723,13 @@
         <v>111</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C24" t="s" s="0">
         <v>64</v>
       </c>
       <c r="D24" t="s" s="0">
-        <v>119</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25">
@@ -8671,13 +8737,13 @@
         <v>111</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C25" t="s" s="0">
         <v>64</v>
       </c>
       <c r="D25" t="s" s="0">
-        <v>203</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26">
@@ -8685,10 +8751,10 @@
         <v>111</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="C26" t="s" s="0">
-        <v>64</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s" s="0">
         <v>31</v>
@@ -8705,7 +8771,7 @@
         <v>64</v>
       </c>
       <c r="D27" t="s" s="0">
-        <v>12</v>
+        <v>205</v>
       </c>
     </row>
     <row r="28">
@@ -8713,7 +8779,7 @@
         <v>111</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="C28" t="s" s="0">
         <v>64</v>
@@ -8769,7 +8835,7 @@
         <v>124</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C32" t="s" s="0">
         <v>64</v>
@@ -8797,7 +8863,7 @@
         <v>124</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="C34" t="s" s="0">
         <v>64</v>
@@ -8839,13 +8905,13 @@
         <v>142</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C37" t="s" s="0">
         <v>64</v>
       </c>
       <c r="D37" t="s" s="0">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="38">
@@ -8867,13 +8933,13 @@
         <v>84</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C39" t="s" s="0">
-        <v>104</v>
+        <v>64</v>
       </c>
       <c r="D39" t="s" s="0">
-        <v>84</v>
+        <v>205</v>
       </c>
     </row>
     <row r="40">
@@ -8881,13 +8947,13 @@
         <v>84</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C40" t="s" s="0">
-        <v>104</v>
+        <v>64</v>
       </c>
       <c r="D40" t="s" s="0">
-        <v>84</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41">
@@ -8895,13 +8961,13 @@
         <v>84</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="C41" t="s" s="0">
-        <v>64</v>
+        <v>104</v>
       </c>
       <c r="D41" t="s" s="0">
-        <v>203</v>
+        <v>84</v>
       </c>
     </row>
     <row r="42">
@@ -8909,13 +8975,13 @@
         <v>84</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>192</v>
+        <v>207</v>
       </c>
       <c r="C42" t="s" s="0">
-        <v>64</v>
+        <v>104</v>
       </c>
       <c r="D42" t="s" s="0">
-        <v>31</v>
+        <v>84</v>
       </c>
     </row>
     <row r="43">
@@ -8923,13 +8989,13 @@
         <v>84</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>204</v>
+        <v>180</v>
       </c>
       <c r="C43" t="s" s="0">
         <v>64</v>
       </c>
       <c r="D43" t="s" s="0">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="44">
@@ -8937,13 +9003,13 @@
         <v>154</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="C44" t="s" s="0">
         <v>64</v>
       </c>
       <c r="D44" t="s" s="0">
-        <v>199</v>
+        <v>87</v>
       </c>
     </row>
     <row r="45">
@@ -8951,13 +9017,13 @@
         <v>154</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>213</v>
+        <v>197</v>
       </c>
       <c r="C45" t="s" s="0">
         <v>64</v>
       </c>
       <c r="D45" t="s" s="0">
-        <v>87</v>
+        <v>198</v>
       </c>
     </row>
   </sheetData>
